--- a/grupos/2APM - Estadisticos 20202.xlsx
+++ b/grupos/2APM - Estadisticos 20202.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="120">
   <si>
     <t>Materia</t>
   </si>
@@ -164,12 +164,12 @@
     <t>González Altamirano Victorino Juventino</t>
   </si>
   <si>
+    <t>Morales Vallejo Jorge Luis</t>
+  </si>
+  <si>
     <t>García Sánchez Magda Bexabe</t>
   </si>
   <si>
-    <t>Morales Vallejo Jorge Luis</t>
-  </si>
-  <si>
     <t>Rosas Aguilar Claudia Leonor</t>
   </si>
   <si>
@@ -191,6 +191,9 @@
     <t>Nombres</t>
   </si>
   <si>
+    <t>BACILIO</t>
+  </si>
+  <si>
     <t>BARRAGAN</t>
   </si>
   <si>
@@ -200,34 +203,85 @@
     <t>CARRERA</t>
   </si>
   <si>
+    <t>CORTES</t>
+  </si>
+  <si>
+    <t>CUEVAS</t>
+  </si>
+  <si>
     <t>CRUZ</t>
   </si>
   <si>
+    <t>GERARDO</t>
+  </si>
+  <si>
     <t>HERNANDEZ</t>
   </si>
   <si>
     <t>LOPEZ</t>
   </si>
   <si>
+    <t>MIRANDA</t>
+  </si>
+  <si>
+    <t>NAMIGTLE</t>
+  </si>
+  <si>
+    <t>ROMAN</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>TORRES</t>
+  </si>
+  <si>
+    <t>TRUJILLO</t>
+  </si>
+  <si>
+    <t>URBANO</t>
+  </si>
+  <si>
+    <t>VASQUEZ</t>
+  </si>
+  <si>
     <t>VERA</t>
   </si>
   <si>
+    <t>XILCAHUA</t>
+  </si>
+  <si>
     <t>XOTLANIHUA</t>
   </si>
   <si>
+    <t>ATILANO</t>
+  </si>
+  <si>
     <t>VILLALBA</t>
   </si>
   <si>
-    <t>CORTES</t>
-  </si>
-  <si>
     <t>ZAVALETA</t>
   </si>
   <si>
+    <t>CONTRERAS</t>
+  </si>
+  <si>
+    <t>CUATRA</t>
+  </si>
+  <si>
+    <t>PIMENTEL</t>
+  </si>
+  <si>
     <t>PALMA</t>
   </si>
   <si>
-    <t>SANCHEZ</t>
+    <t>CASTRO</t>
+  </si>
+  <si>
+    <t>AGUIRRE</t>
+  </si>
+  <si>
+    <t>IXTLA</t>
   </si>
   <si>
     <t>SARMIENTO</t>
@@ -236,12 +290,36 @@
     <t>DE JESUS</t>
   </si>
   <si>
+    <t>ESTRELLA</t>
+  </si>
+  <si>
+    <t>MOLOHUA</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>HERRERA</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
     <t>PONCE</t>
   </si>
   <si>
+    <t>TLAXCALA</t>
+  </si>
+  <si>
     <t>MARTINEZ</t>
   </si>
   <si>
+    <t>YAIR</t>
+  </si>
+  <si>
     <t>ADAN</t>
   </si>
   <si>
@@ -251,9 +329,24 @@
     <t>ALFREDO</t>
   </si>
   <si>
+    <t>CESAR</t>
+  </si>
+  <si>
+    <t>ISYSS MONSERRATH</t>
+  </si>
+  <si>
     <t>VICTOR MANUEL</t>
   </si>
   <si>
+    <t>EDUARDO</t>
+  </si>
+  <si>
+    <t>MARIAM GUADALUPE</t>
+  </si>
+  <si>
+    <t>ELIEL</t>
+  </si>
+  <si>
     <t>EDGAR DANIEL</t>
   </si>
   <si>
@@ -263,121 +356,28 @@
     <t>EVELYN</t>
   </si>
   <si>
+    <t>ANGEL ALDAHIR</t>
+  </si>
+  <si>
+    <t>ESTEFANI</t>
+  </si>
+  <si>
+    <t>EMILIO</t>
+  </si>
+  <si>
+    <t>INGRID</t>
+  </si>
+  <si>
+    <t>JAHEL</t>
+  </si>
+  <si>
     <t>MARITZA</t>
   </si>
   <si>
+    <t>LUIS ANGEL</t>
+  </si>
+  <si>
     <t>ANGELA MONTSERRAT</t>
-  </si>
-  <si>
-    <t>BACILIO</t>
-  </si>
-  <si>
-    <t>CUEVAS</t>
-  </si>
-  <si>
-    <t>GERARDO</t>
-  </si>
-  <si>
-    <t>MIRANDA</t>
-  </si>
-  <si>
-    <t>NAMIGTLE</t>
-  </si>
-  <si>
-    <t>ROMAN</t>
-  </si>
-  <si>
-    <t>TORRES</t>
-  </si>
-  <si>
-    <t>TRUJILLO</t>
-  </si>
-  <si>
-    <t>URBANO</t>
-  </si>
-  <si>
-    <t>VASQUEZ</t>
-  </si>
-  <si>
-    <t>XILCAHUA</t>
-  </si>
-  <si>
-    <t>ATILANO</t>
-  </si>
-  <si>
-    <t>CONTRERAS</t>
-  </si>
-  <si>
-    <t>CUATRA</t>
-  </si>
-  <si>
-    <t>PIMENTEL</t>
-  </si>
-  <si>
-    <t>CASTRO</t>
-  </si>
-  <si>
-    <t>AGUIRRE</t>
-  </si>
-  <si>
-    <t>IXTLA</t>
-  </si>
-  <si>
-    <t>ESTRELLA</t>
-  </si>
-  <si>
-    <t>MOLOHUA</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>HERRERA</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>TLAXCALA</t>
-  </si>
-  <si>
-    <t>YAIR</t>
-  </si>
-  <si>
-    <t>CESAR</t>
-  </si>
-  <si>
-    <t>ISYSS MONSERRATH</t>
-  </si>
-  <si>
-    <t>EDUARDO</t>
-  </si>
-  <si>
-    <t>MARIAM GUADALUPE</t>
-  </si>
-  <si>
-    <t>ELIEL</t>
-  </si>
-  <si>
-    <t>ANGEL ALDAHIR</t>
-  </si>
-  <si>
-    <t>ESTEFANI</t>
-  </si>
-  <si>
-    <t>EMILIO</t>
-  </si>
-  <si>
-    <t>INGRID</t>
-  </si>
-  <si>
-    <t>JAHEL</t>
-  </si>
-  <si>
-    <t>LUIS ANGEL</t>
   </si>
 </sst>
 </file>
@@ -933,16 +933,16 @@
         <v>7</v>
       </c>
       <c r="S4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U4">
         <v>7</v>
       </c>
       <c r="V4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="W4">
         <v>7</v>
@@ -954,10 +954,10 @@
         <v>7</v>
       </c>
       <c r="Z4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB4">
         <v>7</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="L5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M5">
         <v>6</v>
@@ -1022,16 +1022,16 @@
         <v>5</v>
       </c>
       <c r="S5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U5">
         <v>6</v>
       </c>
       <c r="V5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W5">
         <v>6</v>
@@ -1043,7 +1043,7 @@
         <v>6</v>
       </c>
       <c r="Z5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA5">
         <v>6</v>
@@ -1052,7 +1052,7 @@
         <v>6</v>
       </c>
       <c r="AC5">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1078,7 +1078,7 @@
         <v>5</v>
       </c>
       <c r="H6">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I6">
         <v>5</v>
@@ -1090,7 +1090,7 @@
         <v>5</v>
       </c>
       <c r="L6">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M6">
         <v>5</v>
@@ -1099,7 +1099,7 @@
         <v>5</v>
       </c>
       <c r="O6">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P6">
         <v>5</v>
@@ -1111,16 +1111,16 @@
         <v>5</v>
       </c>
       <c r="S6">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T6">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U6">
         <v>5</v>
       </c>
       <c r="V6">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="W6">
         <v>5</v>
@@ -1135,13 +1135,13 @@
         <v>5</v>
       </c>
       <c r="AA6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB6">
         <v>5</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1179,7 +1179,7 @@
         <v>7</v>
       </c>
       <c r="L7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M7">
         <v>8</v>
@@ -1200,16 +1200,16 @@
         <v>6</v>
       </c>
       <c r="S7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U7">
         <v>7</v>
       </c>
       <c r="V7">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="W7">
         <v>6</v>
@@ -1289,16 +1289,16 @@
         <v>6</v>
       </c>
       <c r="S8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U8">
         <v>5</v>
       </c>
       <c r="V8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="W8">
         <v>6</v>
@@ -1313,7 +1313,7 @@
         <v>7</v>
       </c>
       <c r="AA8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB8">
         <v>6</v>
@@ -1357,7 +1357,7 @@
         <v>6</v>
       </c>
       <c r="L9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M9">
         <v>6</v>
@@ -1378,16 +1378,16 @@
         <v>6</v>
       </c>
       <c r="S9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U9">
         <v>5</v>
       </c>
       <c r="V9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W9">
         <v>6</v>
@@ -1399,7 +1399,7 @@
         <v>6</v>
       </c>
       <c r="Z9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA9">
         <v>6</v>
@@ -1467,16 +1467,16 @@
         <v>5</v>
       </c>
       <c r="S10">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="T10">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U10">
         <v>6</v>
       </c>
       <c r="V10">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="W10">
         <v>6</v>
@@ -1556,16 +1556,16 @@
         <v>5</v>
       </c>
       <c r="S11">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="T11">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U11">
         <v>5</v>
       </c>
       <c r="V11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W11">
         <v>6</v>
@@ -1580,7 +1580,7 @@
         <v>6</v>
       </c>
       <c r="AA11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB11">
         <v>5</v>
@@ -1645,16 +1645,16 @@
         <v>6</v>
       </c>
       <c r="S12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U12">
         <v>5</v>
       </c>
       <c r="V12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W12">
         <v>7</v>
@@ -1666,7 +1666,7 @@
         <v>8</v>
       </c>
       <c r="Z12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA12">
         <v>7</v>
@@ -1675,7 +1675,7 @@
         <v>6</v>
       </c>
       <c r="AC12">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1734,16 +1734,16 @@
         <v>8</v>
       </c>
       <c r="S13">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="U13">
         <v>8</v>
       </c>
       <c r="V13">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="W13">
         <v>9</v>
@@ -1823,16 +1823,16 @@
         <v>6</v>
       </c>
       <c r="S14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U14">
         <v>8</v>
       </c>
       <c r="V14">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="W14">
         <v>7</v>
@@ -1844,7 +1844,7 @@
         <v>6</v>
       </c>
       <c r="Z14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AA14">
         <v>8</v>
@@ -1891,7 +1891,7 @@
         <v>6</v>
       </c>
       <c r="L15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M15">
         <v>6</v>
@@ -1912,16 +1912,16 @@
         <v>6</v>
       </c>
       <c r="S15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T15">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U15">
         <v>6</v>
       </c>
       <c r="V15">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="W15">
         <v>7</v>
@@ -1942,7 +1942,7 @@
         <v>7</v>
       </c>
       <c r="AC15">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1968,7 +1968,7 @@
         <v>5</v>
       </c>
       <c r="H16">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I16">
         <v>6</v>
@@ -1980,7 +1980,7 @@
         <v>6</v>
       </c>
       <c r="L16">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M16">
         <v>5</v>
@@ -1989,7 +1989,7 @@
         <v>5</v>
       </c>
       <c r="O16">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P16">
         <v>6</v>
@@ -2001,16 +2001,16 @@
         <v>6</v>
       </c>
       <c r="S16">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T16">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U16">
         <v>5</v>
       </c>
       <c r="V16">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="W16">
         <v>6</v>
@@ -2022,16 +2022,16 @@
         <v>6</v>
       </c>
       <c r="Z16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB16">
         <v>5</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2069,7 +2069,7 @@
         <v>6</v>
       </c>
       <c r="L17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M17">
         <v>6</v>
@@ -2090,16 +2090,16 @@
         <v>5</v>
       </c>
       <c r="S17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U17">
         <v>5</v>
       </c>
       <c r="V17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="W17">
         <v>6</v>
@@ -2120,7 +2120,7 @@
         <v>6</v>
       </c>
       <c r="AC17">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2179,16 +2179,16 @@
         <v>7</v>
       </c>
       <c r="S18">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="T18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="U18">
         <v>8</v>
       </c>
       <c r="V18">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="W18">
         <v>9</v>
@@ -2200,7 +2200,7 @@
         <v>8</v>
       </c>
       <c r="Z18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA18">
         <v>9</v>
@@ -2268,16 +2268,16 @@
         <v>6</v>
       </c>
       <c r="S19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T19">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="U19">
         <v>5</v>
       </c>
       <c r="V19">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="W19">
         <v>7</v>
@@ -2292,7 +2292,7 @@
         <v>7</v>
       </c>
       <c r="AA19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB19">
         <v>5</v>
@@ -2357,16 +2357,16 @@
         <v>7</v>
       </c>
       <c r="S20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="U20">
         <v>8</v>
       </c>
       <c r="V20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="W20">
         <v>6</v>
@@ -2446,16 +2446,16 @@
         <v>7</v>
       </c>
       <c r="S21">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="T21">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U21">
         <v>8</v>
       </c>
       <c r="V21">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="W21">
         <v>7</v>
@@ -2535,16 +2535,16 @@
         <v>10</v>
       </c>
       <c r="S22">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="U22">
         <v>7</v>
       </c>
       <c r="V22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="W22">
         <v>9</v>
@@ -2624,16 +2624,16 @@
         <v>6</v>
       </c>
       <c r="S23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="T23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U23">
         <v>6</v>
       </c>
       <c r="V23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W23">
         <v>6</v>
@@ -2713,16 +2713,16 @@
         <v>9</v>
       </c>
       <c r="S24">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="U24">
         <v>10</v>
       </c>
       <c r="V24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="W24">
         <v>8</v>
@@ -2802,16 +2802,16 @@
         <v>9</v>
       </c>
       <c r="S25">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="U25">
         <v>10</v>
       </c>
       <c r="V25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="W25">
         <v>9</v>
@@ -2870,7 +2870,7 @@
         <v>6</v>
       </c>
       <c r="L26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M26">
         <v>5</v>
@@ -2879,7 +2879,7 @@
         <v>6</v>
       </c>
       <c r="O26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P26">
         <v>6</v>
@@ -2891,16 +2891,16 @@
         <v>6</v>
       </c>
       <c r="S26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U26">
         <v>6</v>
       </c>
       <c r="V26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W26">
         <v>6</v>
@@ -2912,7 +2912,7 @@
         <v>6</v>
       </c>
       <c r="Z26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA26">
         <v>6</v>
@@ -2921,7 +2921,7 @@
         <v>6</v>
       </c>
       <c r="AC26">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2980,16 +2980,16 @@
         <v>8</v>
       </c>
       <c r="S27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T27">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U27">
         <v>5</v>
       </c>
       <c r="V27">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="W27">
         <v>7</v>
@@ -3001,7 +3001,7 @@
         <v>7</v>
       </c>
       <c r="Z27">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AA27">
         <v>9</v>
@@ -3036,7 +3036,7 @@
         <v>6</v>
       </c>
       <c r="H28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I28">
         <v>6</v>
@@ -3057,7 +3057,7 @@
         <v>8</v>
       </c>
       <c r="O28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P28">
         <v>6</v>
@@ -3069,16 +3069,16 @@
         <v>6</v>
       </c>
       <c r="S28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T28">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U28">
         <v>9</v>
       </c>
       <c r="V28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="W28">
         <v>6</v>
@@ -3099,7 +3099,7 @@
         <v>8</v>
       </c>
       <c r="AC28">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -3167,30 +3167,30 @@
         <v>25</v>
       </c>
       <c r="D2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="G2">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H2">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="I2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>48</v>
@@ -3202,27 +3202,27 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F3">
         <v>84</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="H3">
-        <v>7.6</v>
+        <v>6.4</v>
       </c>
       <c r="I3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>49</v>
@@ -3231,19 +3231,19 @@
         <v>25</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H4">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -3387,7 +3387,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3415,246 +3415,6 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>20330051920337</v>
-      </c>
-      <c r="B2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>20330051920338</v>
-      </c>
-      <c r="B3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>20330051920338</v>
-      </c>
-      <c r="B4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>20330051920263</v>
-      </c>
-      <c r="B5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>20330051920342</v>
-      </c>
-      <c r="B6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>20330051920381</v>
-      </c>
-      <c r="B7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>20330051920346</v>
-      </c>
-      <c r="B8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>20330051920346</v>
-      </c>
-      <c r="B9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>20330051920347</v>
-      </c>
-      <c r="B10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>20330051920356</v>
-      </c>
-      <c r="B11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <v>20330051920356</v>
-      </c>
-      <c r="B12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12" t="s">
-        <v>81</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
-        <v>20330051920383</v>
-      </c>
-      <c r="B13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" t="s">
-        <v>82</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -3693,169 +3453,169 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>20330051920338</v>
+        <v>20330051920336</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>20330051920346</v>
+        <v>20330051920337</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>20330051920356</v>
+        <v>20330051920338</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>20330051920337</v>
+        <v>20330051920263</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>20330051920263</v>
+        <v>20330051920339</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="D6" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>20330051920342</v>
+        <v>20330051920340</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D7" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>20330051920381</v>
+        <v>20330051920341</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="D8" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>20330051920347</v>
+        <v>20330051920342</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>20330051920383</v>
+        <v>20330051920343</v>
       </c>
       <c r="B10" t="s">
         <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D10" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>20330051920336</v>
+        <v>20330051920344</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -3863,16 +3623,16 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>20330051920339</v>
+        <v>20330051920345</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C12" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D12" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -3880,13 +3640,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>20330051920340</v>
+        <v>20330051920381</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="D13" t="s">
         <v>109</v>
@@ -3897,13 +3657,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>20330051920341</v>
+        <v>20330051920346</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D14" t="s">
         <v>110</v>
@@ -3914,13 +3674,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>20330051920343</v>
+        <v>20330051920347</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D15" t="s">
         <v>111</v>
@@ -3931,16 +3691,16 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>20330051920344</v>
+        <v>20330051920348</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -3948,16 +3708,16 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>20330051920345</v>
+        <v>20330051920349</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -3965,16 +3725,16 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>20330051920348</v>
+        <v>20330051920350</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="C18" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="D18" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -3982,13 +3742,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>20330051920349</v>
+        <v>20330051920352</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D19" t="s">
         <v>114</v>
@@ -3999,13 +3759,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>20330051920350</v>
+        <v>20330051920353</v>
       </c>
       <c r="B20" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="D20" t="s">
         <v>115</v>
@@ -4016,13 +3776,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>20330051920352</v>
+        <v>20330051920354</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C21" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D21" t="s">
         <v>116</v>
@@ -4033,16 +3793,16 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>20330051920353</v>
+        <v>20330051920355</v>
       </c>
       <c r="B22" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C22" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D22" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -4050,16 +3810,16 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>20330051920354</v>
+        <v>20330051920382</v>
       </c>
       <c r="B23" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" t="s">
         <v>105</v>
-      </c>
-      <c r="D23" t="s">
-        <v>118</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -4067,16 +3827,16 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>20330051920355</v>
+        <v>20330051920356</v>
       </c>
       <c r="B24" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C24" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D24" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -4084,16 +3844,16 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>20330051920382</v>
+        <v>20330051920357</v>
       </c>
       <c r="B25" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="D25" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -4101,13 +3861,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>20330051920357</v>
+        <v>20330051920383</v>
       </c>
       <c r="B26" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C26" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D26" t="s">
         <v>119</v>
@@ -4123,7 +3883,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4161,13 +3921,13 @@
         <v>20330051920342</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -4176,7 +3936,7 @@
         <v>47</v>
       </c>
       <c r="G2">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4184,19 +3944,19 @@
         <v>20330051920342</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -4204,16 +3964,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>20330051920356</v>
+        <v>20330051920337</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -4222,44 +3982,44 @@
         <v>47</v>
       </c>
       <c r="G4">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>20330051920356</v>
+        <v>20330051920349</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
         <v>48</v>
       </c>
       <c r="G5">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>20330051920337</v>
+        <v>20330051920356</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -4268,122 +4028,30 @@
         <v>47</v>
       </c>
       <c r="G6">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>20330051920263</v>
+        <v>20330051920383</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>20330051920381</v>
-      </c>
-      <c r="B8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>20330051920347</v>
-      </c>
-      <c r="B9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>20330051920349</v>
-      </c>
-      <c r="B10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D10" t="s">
-        <v>114</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>20330051920383</v>
-      </c>
-      <c r="B11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" t="s">
-        <v>82</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/grupos/2APM - Estadisticos 20202.xlsx
+++ b/grupos/2APM - Estadisticos 20202.xlsx
@@ -2731,7 +2731,7 @@
         <v>9</v>
       </c>
       <c r="Y24">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Z24">
         <v>8</v>

--- a/grupos/2APM - Estadisticos 20202.xlsx
+++ b/grupos/2APM - Estadisticos 20202.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="120">
   <si>
     <t>Materia</t>
   </si>
@@ -170,13 +170,13 @@
     <t>García Sánchez Magda Bexabe</t>
   </si>
   <si>
+    <t>Rodriguez Roman Marisol</t>
+  </si>
+  <si>
+    <t>De Jesús Orduña Sofía del Pilar</t>
+  </si>
+  <si>
     <t>Rosas Aguilar Claudia Leonor</t>
-  </si>
-  <si>
-    <t>Rodriguez Roman Marisol</t>
-  </si>
-  <si>
-    <t>De Jesús Orduña Sofía del Pilar</t>
   </si>
   <si>
     <t>NC</t>
@@ -3199,19 +3199,19 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G3">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H3">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>12</v>
       </c>
       <c r="H4">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -3254,7 +3254,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>50</v>
@@ -3263,19 +3263,19 @@
         <v>25</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H5">
-        <v>7.3</v>
+        <v>6.8</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -3286,7 +3286,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>51</v>
@@ -3307,7 +3307,7 @@
         <v>4</v>
       </c>
       <c r="H6">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -3318,10 +3318,10 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7">
         <v>25</v>
@@ -3339,7 +3339,7 @@
         <v>4</v>
       </c>
       <c r="H7">
-        <v>6.6</v>
+        <v>7.1</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -3350,7 +3350,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>52</v>
@@ -3359,19 +3359,19 @@
         <v>25</v>
       </c>
       <c r="D8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>6.9</v>
+        <v>7.5</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -3883,7 +3883,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3913,7 +3913,7 @@
         <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3987,16 +3987,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>20330051920349</v>
+        <v>20330051920340</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D5" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -4010,22 +4010,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>20330051920356</v>
+        <v>20330051920349</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D6" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -4033,24 +4033,47 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
+        <v>20330051920356</v>
+      </c>
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
         <v>20330051920383</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>77</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>98</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>119</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>11</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F8" t="s">
         <v>49</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <v>5</v>
       </c>
     </row>
